--- a/runs/run871/NotionalETEOutput871.xlsx
+++ b/runs/run871/NotionalETEOutput871.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER3_State_Update</t>
+    <t>Missile_HELLMASKER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3_111.MISSILE_BRAVER3_111</t>
+    <t>MISSILE_HELLMASKER2_331.MISSILE_HELLMASKER2_331</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3</t>
+    <t>MISSILE_HELLMASKER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1449.661334301755</v>
+        <v>-1554.226923666381</v>
       </c>
       <c r="J2">
-        <v>2004.154275978149</v>
+        <v>2093.530746718064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1411.657008129111</v>
+        <v>-1528.730458254289</v>
       </c>
       <c r="J3">
-        <v>1880.998321490209</v>
+        <v>2024.264469622198</v>
       </c>
       <c r="K3">
-        <v>315.5996605480973</v>
+        <v>304.3836688996263</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1501.844018255201</v>
+        <v>-1473.613811294163</v>
       </c>
       <c r="J4">
-        <v>1974.522827433159</v>
+        <v>1885.701828910278</v>
       </c>
       <c r="K4">
-        <v>612.8675312300663</v>
+        <v>592.3103302097691</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1384.819985218929</v>
+        <v>-1403.43560908195</v>
       </c>
       <c r="J5">
-        <v>1914.179540253467</v>
+        <v>1890.41671109916</v>
       </c>
       <c r="K5">
-        <v>869.7325297981206</v>
+        <v>886.0445403220184</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1350.575638420026</v>
+        <v>-1416.769637701362</v>
       </c>
       <c r="J6">
-        <v>1737.505926707903</v>
+        <v>1820.833067371484</v>
       </c>
       <c r="K6">
-        <v>1174.284375973372</v>
+        <v>1093.967417779497</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1376.701840032795</v>
+        <v>-1295.861470073062</v>
       </c>
       <c r="J7">
-        <v>1807.536101849762</v>
+        <v>1799.117940755069</v>
       </c>
       <c r="K7">
-        <v>1331.125875382881</v>
+        <v>1346.187364184023</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1258.193901885207</v>
+        <v>-1248.991157476878</v>
       </c>
       <c r="J8">
-        <v>1703.488939982089</v>
+        <v>1765.258161267199</v>
       </c>
       <c r="K8">
-        <v>1573.155479656996</v>
+        <v>1635.924012144493</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.62050695108334</v>
+        <v>-100.9874318514434</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1331.156219282216</v>
+        <v>-1262.731063848313</v>
       </c>
       <c r="J9">
-        <v>1739.28054855504</v>
+        <v>1605.704073097728</v>
       </c>
       <c r="K9">
-        <v>1797.322948300632</v>
+        <v>1823.325158950883</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>224.5034461470308</v>
+        <v>210.1725627192698</v>
       </c>
       <c r="G10">
-        <v>-82.29037228379758</v>
+        <v>-81.22484100910502</v>
       </c>
       <c r="H10">
-        <v>819.0675432706639</v>
+        <v>833.862565674087</v>
       </c>
       <c r="I10">
-        <v>-1208.966801498664</v>
+        <v>-1277.316591727303</v>
       </c>
       <c r="J10">
-        <v>1618.227874048941</v>
+        <v>1556.177529288252</v>
       </c>
       <c r="K10">
-        <v>1979.823470097397</v>
+        <v>1977.688929515739</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.9466246802919</v>
+        <v>165.8130731198552</v>
       </c>
       <c r="G11">
-        <v>-69.25801318156093</v>
+        <v>-65.11504804874954</v>
       </c>
       <c r="H11">
-        <v>1013.199280644791</v>
+        <v>1015.876935726629</v>
       </c>
       <c r="I11">
-        <v>-1222.19156049719</v>
+        <v>-1180.375561735333</v>
       </c>
       <c r="J11">
-        <v>1502.307672934796</v>
+        <v>1574.26783047911</v>
       </c>
       <c r="K11">
-        <v>2107.535357854509</v>
+        <v>2247.941319438812</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.2247357648175</v>
+        <v>139.0892018506958</v>
       </c>
       <c r="G12">
-        <v>-52.40350036783447</v>
+        <v>-48.81751428390765</v>
       </c>
       <c r="H12">
-        <v>1161.01829386591</v>
+        <v>1172.06103112679</v>
       </c>
       <c r="I12">
-        <v>-1206.768215835669</v>
+        <v>-1159.426520092905</v>
       </c>
       <c r="J12">
-        <v>1508.817478057419</v>
+        <v>1486.157518145997</v>
       </c>
       <c r="K12">
-        <v>2292.326852028662</v>
+        <v>2418.275476751462</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.6279733781853</v>
+        <v>121.4009179813718</v>
       </c>
       <c r="G13">
-        <v>-34.47236384396043</v>
+        <v>-33.38688229321996</v>
       </c>
       <c r="H13">
-        <v>1260.672310813213</v>
+        <v>1254.106946120943</v>
       </c>
       <c r="I13">
-        <v>-1102.850358853809</v>
+        <v>-1082.288956924481</v>
       </c>
       <c r="J13">
-        <v>1533.455811412357</v>
+        <v>1436.67356644408</v>
       </c>
       <c r="K13">
-        <v>2401.043374468631</v>
+        <v>2474.29210010698</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.8629294558856</v>
+        <v>114.2790836068018</v>
       </c>
       <c r="G14">
-        <v>-16.79254612269445</v>
+        <v>-16.90548022999579</v>
       </c>
       <c r="H14">
-        <v>1298.634914137511</v>
+        <v>1326.625249266821</v>
       </c>
       <c r="I14">
-        <v>-1107.287748244165</v>
+        <v>-1130.539401270648</v>
       </c>
       <c r="J14">
-        <v>1467.912240672207</v>
+        <v>1448.457850637577</v>
       </c>
       <c r="K14">
-        <v>2563.526205466739</v>
+        <v>2663.087474860477</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.72632352360776</v>
+        <v>101.4709706657635</v>
       </c>
       <c r="G15">
-        <v>-0.9622788677330572</v>
+        <v>-0.9376014790930364</v>
       </c>
       <c r="H15">
-        <v>1421.136422993926</v>
+        <v>1326.012842891758</v>
       </c>
       <c r="I15">
-        <v>-1000.516386575782</v>
+        <v>-1088.366447144429</v>
       </c>
       <c r="J15">
-        <v>1407.187096770565</v>
+        <v>1324.967530035825</v>
       </c>
       <c r="K15">
-        <v>2871.668817676243</v>
+        <v>2831.740265219469</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.48026696585619</v>
+        <v>95.04530013279984</v>
       </c>
       <c r="G16">
-        <v>14.97650727433665</v>
+        <v>15.35463042388942</v>
       </c>
       <c r="H16">
-        <v>1430.874798178439</v>
+        <v>1472.306535808443</v>
       </c>
       <c r="I16">
-        <v>-1034.474175820142</v>
+        <v>-1012.174903330505</v>
       </c>
       <c r="J16">
-        <v>1340.433848801203</v>
+        <v>1282.525322117136</v>
       </c>
       <c r="K16">
-        <v>2902.26051695898</v>
+        <v>2928.120553252707</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.96854545776537</v>
+        <v>87.01256580038509</v>
       </c>
       <c r="G17">
-        <v>32.99212816224334</v>
+        <v>31.32099953380708</v>
       </c>
       <c r="H17">
-        <v>1446.012527003573</v>
+        <v>1511.827077031109</v>
       </c>
       <c r="I17">
-        <v>-924.618193899234</v>
+        <v>-961.9113755509004</v>
       </c>
       <c r="J17">
-        <v>1251.171586497714</v>
+        <v>1325.752632203672</v>
       </c>
       <c r="K17">
-        <v>2981.502887635791</v>
+        <v>2906.419731575022</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.84394880470623</v>
+        <v>83.9749465403536</v>
       </c>
       <c r="G18">
-        <v>48.77289185152699</v>
+        <v>46.59753563521411</v>
       </c>
       <c r="H18">
-        <v>1430.741165279547</v>
+        <v>1571.416547754575</v>
       </c>
       <c r="I18">
-        <v>-884.8392401980318</v>
+        <v>-901.2635809565591</v>
       </c>
       <c r="J18">
-        <v>1194.455288810851</v>
+        <v>1207.48846751297</v>
       </c>
       <c r="K18">
-        <v>3038.509531081078</v>
+        <v>2898.692912838558</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.41451652832396</v>
+        <v>79.71540087920945</v>
       </c>
       <c r="G19">
-        <v>67.17756654728055</v>
+        <v>63.61731430392111</v>
       </c>
       <c r="H19">
-        <v>1511.449486008257</v>
+        <v>1600.674858992427</v>
       </c>
       <c r="I19">
-        <v>-852.6178975006376</v>
+        <v>-902.2260250360367</v>
       </c>
       <c r="J19">
-        <v>1206.743618452549</v>
+        <v>1182.915034945734</v>
       </c>
       <c r="K19">
-        <v>3149.81506023078</v>
+        <v>2981.965780939395</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.00822110460894</v>
+        <v>72.52677700324274</v>
       </c>
       <c r="G20">
-        <v>85.65843093825914</v>
+        <v>82.01257889676263</v>
       </c>
       <c r="H20">
-        <v>1604.512115515118</v>
+        <v>1634.2691141646</v>
       </c>
       <c r="I20">
-        <v>-837.1506367980262</v>
+        <v>-820.6813437296532</v>
       </c>
       <c r="J20">
-        <v>1163.075297198543</v>
+        <v>1170.101204748252</v>
       </c>
       <c r="K20">
-        <v>3242.664330612132</v>
+        <v>3160.683138074212</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.76825385920583</v>
+        <v>70.26680788328545</v>
       </c>
       <c r="G21">
-        <v>101.8355044150271</v>
+        <v>93.30542392403922</v>
       </c>
       <c r="H21">
-        <v>1575.978496826822</v>
+        <v>1624.735514632904</v>
       </c>
       <c r="I21">
-        <v>-783.3201399258958</v>
+        <v>-799.0563319226495</v>
       </c>
       <c r="J21">
-        <v>1112.989093883781</v>
+        <v>1116.835975108544</v>
       </c>
       <c r="K21">
-        <v>3310.994731991657</v>
+        <v>3070.468870350792</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.78064132156119</v>
+        <v>70.33735319847523</v>
       </c>
       <c r="G22">
-        <v>110.7577796659421</v>
+        <v>112.756790713797</v>
       </c>
       <c r="H22">
-        <v>1549.137417107357</v>
+        <v>1579.30728758673</v>
       </c>
       <c r="I22">
-        <v>-774.7526051532881</v>
+        <v>-766.8446686477273</v>
       </c>
       <c r="J22">
-        <v>1005.387071284938</v>
+        <v>987.7054140699835</v>
       </c>
       <c r="K22">
-        <v>3182.730775904748</v>
+        <v>3308.822506206777</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.53213416224182</v>
+        <v>67.27662544072695</v>
       </c>
       <c r="G23">
-        <v>136.384836974097</v>
+        <v>126.0305065680624</v>
       </c>
       <c r="H23">
-        <v>1670.669916115032</v>
+        <v>1603.498007152166</v>
       </c>
       <c r="I23">
-        <v>-688.2764854021476</v>
+        <v>-690.0774338203735</v>
       </c>
       <c r="J23">
-        <v>940.3555396515942</v>
+        <v>955.8424854299717</v>
       </c>
       <c r="K23">
-        <v>3284.537977340185</v>
+        <v>3239.540109333051</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.9588940227976</v>
+        <v>63.07442241357732</v>
       </c>
       <c r="G24">
-        <v>151.2199528495676</v>
+        <v>153.3743839874749</v>
       </c>
       <c r="H24">
-        <v>1725.812797448609</v>
+        <v>1615.685616858662</v>
       </c>
       <c r="I24">
-        <v>-628.8541949438501</v>
+        <v>-639.1090359748254</v>
       </c>
       <c r="J24">
-        <v>956.5231363602852</v>
+        <v>943.9896190894003</v>
       </c>
       <c r="K24">
-        <v>3051.357902201491</v>
+        <v>3080.507413571623</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.054241238049</v>
+        <v>62.87185412634998</v>
       </c>
       <c r="G25">
-        <v>158.1907131118514</v>
+        <v>161.3486174757266</v>
       </c>
       <c r="H25">
-        <v>1630.431296370972</v>
+        <v>1741.14342227892</v>
       </c>
       <c r="I25">
-        <v>-607.0897534074551</v>
+        <v>-618.3005230360898</v>
       </c>
       <c r="J25">
-        <v>848.3500738214232</v>
+        <v>888.292095633434</v>
       </c>
       <c r="K25">
-        <v>3073.485876034852</v>
+        <v>3045.36892914228</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.29128270144905</v>
+        <v>57.22828101094559</v>
       </c>
       <c r="G26">
-        <v>183.7367536203799</v>
+        <v>185.1657495594131</v>
       </c>
       <c r="H26">
-        <v>1747.796211799937</v>
+        <v>1608.941030636869</v>
       </c>
       <c r="I26">
-        <v>-534.887993563024</v>
+        <v>-561.0660848785141</v>
       </c>
       <c r="J26">
-        <v>816.3778170628302</v>
+        <v>852.9690113433556</v>
       </c>
       <c r="K26">
-        <v>2973.527294427115</v>
+        <v>2995.148317130545</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.98747832200707</v>
+        <v>58.39021623056963</v>
       </c>
       <c r="G27">
-        <v>205.1613108809104</v>
+        <v>190.0621910060566</v>
       </c>
       <c r="H27">
-        <v>1686.507367983737</v>
+        <v>1681.211691840643</v>
       </c>
       <c r="I27">
-        <v>-512.0483178131964</v>
+        <v>-480.1296947061049</v>
       </c>
       <c r="J27">
-        <v>754.2473554951116</v>
+        <v>807.3212157008152</v>
       </c>
       <c r="K27">
-        <v>3120.035758807179</v>
+        <v>3075.457829275432</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.07245801401923</v>
+        <v>58.10975959208952</v>
       </c>
       <c r="G28">
-        <v>219.2513673196063</v>
+        <v>209.2673657583456</v>
       </c>
       <c r="H28">
-        <v>1702.218832724595</v>
+        <v>1696.137706139105</v>
       </c>
       <c r="I28">
-        <v>-435.7876271381733</v>
+        <v>-425.5208156955426</v>
       </c>
       <c r="J28">
-        <v>733.7849976694564</v>
+        <v>702.1918131424698</v>
       </c>
       <c r="K28">
-        <v>3067.885715681463</v>
+        <v>2974.949175508088</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.4769916727621</v>
+        <v>53.81652031877579</v>
       </c>
       <c r="G29">
-        <v>228.8754910549784</v>
+        <v>241.4664426909856</v>
       </c>
       <c r="H29">
-        <v>1685.79823414506</v>
+        <v>1685.746460753947</v>
       </c>
       <c r="I29">
-        <v>-377.0493051665945</v>
+        <v>-385.8746529854411</v>
       </c>
       <c r="J29">
-        <v>689.7457060763796</v>
+        <v>698.0255744117082</v>
       </c>
       <c r="K29">
-        <v>2744.04962043169</v>
+        <v>2983.388226435678</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.29182548497035</v>
+        <v>55.27379074407295</v>
       </c>
       <c r="G30">
-        <v>256.6913650915932</v>
+        <v>248.4018472082817</v>
       </c>
       <c r="H30">
-        <v>1715.02366110018</v>
+        <v>1712.454798929733</v>
       </c>
       <c r="I30">
-        <v>-310.7974213316681</v>
+        <v>-315.0126323265779</v>
       </c>
       <c r="J30">
-        <v>659.3609714641547</v>
+        <v>653.051974924093</v>
       </c>
       <c r="K30">
-        <v>2689.413839732882</v>
+        <v>2736.621917653651</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.17642754794677</v>
+        <v>50.00547608455294</v>
       </c>
       <c r="G31">
-        <v>265.7878415431989</v>
+        <v>272.0802195918053</v>
       </c>
       <c r="H31">
-        <v>1714.432735795441</v>
+        <v>1693.821906591561</v>
       </c>
       <c r="I31">
-        <v>-268.6755500592001</v>
+        <v>-264.3571114727788</v>
       </c>
       <c r="J31">
-        <v>560.8145572854638</v>
+        <v>606.1473051429829</v>
       </c>
       <c r="K31">
-        <v>2652.277381879798</v>
+        <v>2540.665909515442</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.55795391656599</v>
+        <v>53.78627582531974</v>
       </c>
       <c r="G32">
-        <v>268.8841286403767</v>
+        <v>272.9640507871665</v>
       </c>
       <c r="H32">
-        <v>1774.214046600682</v>
+        <v>1812.973222745085</v>
       </c>
       <c r="I32">
-        <v>-199.5200540453873</v>
+        <v>-208.3622465490394</v>
       </c>
       <c r="J32">
-        <v>552.5958192517528</v>
+        <v>529.1228831037471</v>
       </c>
       <c r="K32">
-        <v>2456.274741123472</v>
+        <v>2587.225338797831</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.11540771028472</v>
+        <v>51.35237059497441</v>
       </c>
       <c r="G33">
-        <v>301.6363102563795</v>
+        <v>294.2049370742764</v>
       </c>
       <c r="H33">
-        <v>1853.276377406229</v>
+        <v>1729.859962430081</v>
       </c>
       <c r="I33">
-        <v>-144.8491990955337</v>
+        <v>-153.3970857949291</v>
       </c>
       <c r="J33">
-        <v>501.508489682492</v>
+        <v>513.7732164923502</v>
       </c>
       <c r="K33">
-        <v>2268.868231589432</v>
+        <v>2343.022307749916</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.59561221768196</v>
+        <v>51.02489433855245</v>
       </c>
       <c r="G34">
-        <v>320.2793862145687</v>
+        <v>313.956846894928</v>
       </c>
       <c r="H34">
-        <v>1759.012011687652</v>
+        <v>1788.751416912835</v>
       </c>
       <c r="I34">
-        <v>-86.59373975561974</v>
+        <v>-83.06697490460523</v>
       </c>
       <c r="J34">
-        <v>448.4910741653</v>
+        <v>459.9825581420294</v>
       </c>
       <c r="K34">
-        <v>2203.678397971351</v>
+        <v>2307.281023231094</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.0846619063456</v>
+        <v>49.0880467965004</v>
       </c>
       <c r="G35">
-        <v>336.8419575273409</v>
+        <v>331.4390928198707</v>
       </c>
       <c r="H35">
-        <v>1897.241830919197</v>
+        <v>1772.703272068708</v>
       </c>
       <c r="I35">
-        <v>-19.55472040565979</v>
+        <v>-19.14231703068939</v>
       </c>
       <c r="J35">
-        <v>381.0712660069194</v>
+        <v>396.8080602621351</v>
       </c>
       <c r="K35">
-        <v>2069.178971080074</v>
+        <v>1959.848440438229</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.99805444649606</v>
+        <v>47.0816514236263</v>
       </c>
       <c r="G36">
-        <v>357.6695279167736</v>
+        <v>348.2780082065862</v>
       </c>
       <c r="H36">
-        <v>1770.935711033662</v>
+        <v>1908.612629228059</v>
       </c>
       <c r="I36">
-        <v>46.29943192050118</v>
+        <v>47.34311098726844</v>
       </c>
       <c r="J36">
-        <v>336.8097672385094</v>
+        <v>358.3329557581448</v>
       </c>
       <c r="K36">
-        <v>1755.207567942048</v>
+        <v>1851.449916084061</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.28134076636742</v>
+        <v>45.99443760993874</v>
       </c>
       <c r="G37">
-        <v>376.90266021245</v>
+        <v>361.4590347925957</v>
       </c>
       <c r="H37">
-        <v>1797.109317489697</v>
+        <v>1766.60718641015</v>
       </c>
       <c r="I37">
-        <v>109.5693494656051</v>
+        <v>110.6035392970112</v>
       </c>
       <c r="J37">
-        <v>291.6120385646498</v>
+        <v>287.9297660370098</v>
       </c>
       <c r="K37">
-        <v>1646.088950491906</v>
+        <v>1543.382635348694</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.61284237438019</v>
+        <v>45.23813624562939</v>
       </c>
       <c r="G38">
-        <v>390.8596733429467</v>
+        <v>372.504211071339</v>
       </c>
       <c r="H38">
-        <v>1850.752306755282</v>
+        <v>1873.777304172954</v>
       </c>
       <c r="I38">
-        <v>185.9961926338414</v>
+        <v>189.2122618781698</v>
       </c>
       <c r="J38">
-        <v>250.3397776888799</v>
+        <v>256.0771278948078</v>
       </c>
       <c r="K38">
-        <v>1338.890241290151</v>
+        <v>1448.516254675828</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.86130366798209</v>
+        <v>43.28603886708648</v>
       </c>
       <c r="G39">
-        <v>396.4260820161968</v>
+        <v>406.6563507483028</v>
       </c>
       <c r="H39">
-        <v>1804.563383550564</v>
+        <v>1930.795311687315</v>
       </c>
       <c r="I39">
-        <v>262.2689565991648</v>
+        <v>267.5569844552576</v>
       </c>
       <c r="J39">
-        <v>203.4918102424684</v>
+        <v>199.0787656848906</v>
       </c>
       <c r="K39">
-        <v>1168.558543870869</v>
+        <v>1143.404357370065</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.32855594188492</v>
+        <v>44.91593954245071</v>
       </c>
       <c r="G40">
-        <v>396.0635508105639</v>
+        <v>427.9469890836787</v>
       </c>
       <c r="H40">
-        <v>1853.880116033791</v>
+        <v>1867.198193654005</v>
       </c>
       <c r="I40">
-        <v>316.9191453517748</v>
+        <v>340.5679008988521</v>
       </c>
       <c r="J40">
-        <v>146.689478624353</v>
+        <v>147.2911236912866</v>
       </c>
       <c r="K40">
-        <v>908.1045950807573</v>
+        <v>854.1610333337078</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.39291260777772</v>
+        <v>44.23851552990294</v>
       </c>
       <c r="G41">
-        <v>414.9723454371492</v>
+        <v>429.1809706159755</v>
       </c>
       <c r="H41">
-        <v>1798.589283602623</v>
+        <v>1939.575415925988</v>
       </c>
       <c r="I41">
-        <v>385.2106859690023</v>
+        <v>410.4643936954192</v>
       </c>
       <c r="J41">
-        <v>104.8283783041975</v>
+        <v>105.0724812471872</v>
       </c>
       <c r="K41">
-        <v>638.535434641537</v>
+        <v>617.4902303166823</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.77252537535766</v>
+        <v>43.83419367147879</v>
       </c>
       <c r="G42">
-        <v>443.1141614946586</v>
+        <v>450.9089586996521</v>
       </c>
       <c r="H42">
-        <v>1827.141410031642</v>
+        <v>1842.405809019629</v>
       </c>
       <c r="I42">
-        <v>499.9388566266838</v>
+        <v>490.4895287450569</v>
       </c>
       <c r="J42">
-        <v>53.65125637870099</v>
+        <v>55.53299236173936</v>
       </c>
       <c r="K42">
-        <v>343.3644025249818</v>
+        <v>333.7887902689194</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.19737480610316</v>
+        <v>41.30570404504144</v>
       </c>
       <c r="G43">
-        <v>462.8493429379765</v>
+        <v>477.9246450694234</v>
       </c>
       <c r="H43">
-        <v>1817.59645434862</v>
+        <v>1919.770788981834</v>
       </c>
       <c r="I43">
-        <v>576.9705754419188</v>
+        <v>538.2694250787225</v>
       </c>
       <c r="J43">
-        <v>5.395133400123806</v>
+        <v>5.24695520795819</v>
       </c>
       <c r="K43">
-        <v>35.29072937536572</v>
+        <v>32.95188067831777</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.13712005861004</v>
+        <v>42.49115107369676</v>
       </c>
       <c r="G44">
-        <v>464.2832329622203</v>
+        <v>479.5664235171179</v>
       </c>
       <c r="H44">
-        <v>1843.210860501669</v>
+        <v>1948.367499800608</v>
       </c>
       <c r="I44">
-        <v>655.3006763628058</v>
+        <v>652.3131746352738</v>
       </c>
       <c r="J44">
-        <v>-44.74784298052585</v>
+        <v>-44.63762329899406</v>
       </c>
       <c r="K44">
-        <v>-274.3777157781911</v>
+        <v>-288.4821619724925</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.92245164683187</v>
+        <v>41.57337314081366</v>
       </c>
       <c r="G45">
-        <v>488.435719652701</v>
+        <v>491.3427701237711</v>
       </c>
       <c r="H45">
-        <v>1988.50716926261</v>
+        <v>1959.787811233693</v>
       </c>
       <c r="I45">
-        <v>730.8068331343295</v>
+        <v>709.7214693586038</v>
       </c>
       <c r="J45">
-        <v>-89.40959592032871</v>
+        <v>-94.1269404994555</v>
       </c>
       <c r="K45">
-        <v>-628.6149358281824</v>
+        <v>-588.4338007135284</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.27238544512333</v>
+        <v>38.54069922805261</v>
       </c>
       <c r="G46">
-        <v>516.4523862116076</v>
+        <v>498.7767626838415</v>
       </c>
       <c r="H46">
-        <v>2009.609971314913</v>
+        <v>1876.041972881795</v>
       </c>
       <c r="I46">
-        <v>796.8167403662711</v>
+        <v>797.5997938715865</v>
       </c>
       <c r="J46">
-        <v>-138.8561468449081</v>
+        <v>-147.2194598617224</v>
       </c>
       <c r="K46">
-        <v>-922.8252321937445</v>
+        <v>-949.8391696271985</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.49708441670266</v>
+        <v>38.60804363496153</v>
       </c>
       <c r="G47">
-        <v>544.1470121169405</v>
+        <v>538.0430207085008</v>
       </c>
       <c r="H47">
-        <v>1973.097449409579</v>
+        <v>2001.887215899333</v>
       </c>
       <c r="I47">
-        <v>895.3432731303641</v>
+        <v>859.6790979000741</v>
       </c>
       <c r="J47">
-        <v>-197.421087767772</v>
+        <v>-187.5186349319859</v>
       </c>
       <c r="K47">
-        <v>-1281.283651633197</v>
+        <v>-1389.178194665331</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.00503940316454</v>
+        <v>39.45983013458086</v>
       </c>
       <c r="G48">
-        <v>542.0799684590153</v>
+        <v>566.2895514561394</v>
       </c>
       <c r="H48">
-        <v>2012.524639415302</v>
+        <v>1899.696883221402</v>
       </c>
       <c r="I48">
-        <v>1015.826108034984</v>
+        <v>973.4410361018306</v>
       </c>
       <c r="J48">
-        <v>-227.2934439339295</v>
+        <v>-242.8918806844468</v>
       </c>
       <c r="K48">
-        <v>-1728.150380203846</v>
+        <v>-1735.786965187528</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.21905061282013</v>
+        <v>40.16605893762962</v>
       </c>
       <c r="G49">
-        <v>579.1721801496956</v>
+        <v>563.9247065024491</v>
       </c>
       <c r="H49">
-        <v>1892.809011879518</v>
+        <v>1990.414599183849</v>
       </c>
       <c r="I49">
-        <v>1047.530634728654</v>
+        <v>1067.975654792638</v>
       </c>
       <c r="J49">
-        <v>-277.8982330800832</v>
+        <v>-278.575805507259</v>
       </c>
       <c r="K49">
-        <v>-2170.804584641069</v>
+        <v>-2100.983102748789</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.05249173958509</v>
+        <v>40.3115802881392</v>
       </c>
       <c r="G50">
-        <v>596.8867482520022</v>
+        <v>598.5286575533441</v>
       </c>
       <c r="H50">
-        <v>1962.368579852586</v>
+        <v>1889.961994782173</v>
       </c>
       <c r="I50">
-        <v>1182.782303801025</v>
+        <v>1206.48375176901</v>
       </c>
       <c r="J50">
-        <v>-320.651692222817</v>
+        <v>-323.0429752729544</v>
       </c>
       <c r="K50">
-        <v>-2611.244006936226</v>
+        <v>-2494.267082515482</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.17789727496367</v>
+        <v>38.76971439913775</v>
       </c>
       <c r="G51">
-        <v>616.3843170491713</v>
+        <v>605.0262340726105</v>
       </c>
       <c r="H51">
-        <v>2041.057940117205</v>
+        <v>1966.904448115735</v>
       </c>
       <c r="I51">
-        <v>1311.734704422109</v>
+        <v>1319.248888762102</v>
       </c>
       <c r="J51">
-        <v>-370.7309450683082</v>
+        <v>-391.2909662155151</v>
       </c>
       <c r="K51">
-        <v>-2984.924317576898</v>
+        <v>-2877.406194817281</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.064026453117</v>
+        <v>36.41760256710476</v>
       </c>
       <c r="G52">
-        <v>620.703013543813</v>
+        <v>636.5217461723576</v>
       </c>
       <c r="H52">
-        <v>1895.00697106323</v>
+        <v>2000.656466127451</v>
       </c>
       <c r="I52">
-        <v>1355.602989308806</v>
+        <v>1341.628186111774</v>
       </c>
       <c r="J52">
-        <v>-444.2053559137584</v>
+        <v>-423.6541851956914</v>
       </c>
       <c r="K52">
-        <v>-3284.177408619565</v>
+        <v>-3325.885814019779</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.45013440211966</v>
+        <v>35.43505698886505</v>
       </c>
       <c r="G53">
-        <v>625.9300041303248</v>
+        <v>653.7648074987852</v>
       </c>
       <c r="H53">
-        <v>1989.224817952205</v>
+        <v>1900.963007026932</v>
       </c>
       <c r="I53">
-        <v>1494.404808086586</v>
+        <v>1416.73889998411</v>
       </c>
       <c r="J53">
-        <v>-497.0777334049328</v>
+        <v>-490.0391224378656</v>
       </c>
       <c r="K53">
-        <v>-3748.638866617096</v>
+        <v>-3683.215134730989</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.52362413910154</v>
+        <v>38.37190847317103</v>
       </c>
       <c r="G54">
-        <v>656.7899884532419</v>
+        <v>653.3350728761794</v>
       </c>
       <c r="H54">
-        <v>1922.054535056348</v>
+        <v>2000.517458840238</v>
       </c>
       <c r="I54">
-        <v>1602.272556490582</v>
+        <v>1481.894660045696</v>
       </c>
       <c r="J54">
-        <v>-545.469042743085</v>
+        <v>-545.2418468619529</v>
       </c>
       <c r="K54">
-        <v>-4151.337743989623</v>
+        <v>-4313.489055532327</v>
       </c>
     </row>
   </sheetData>
